--- a/FichesTemps/VictorTurgeon.xlsx
+++ b/FichesTemps/VictorTurgeon.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t xml:space="preserve">Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -257,6 +257,9 @@
     <t xml:space="preserve">J'ai été présent à tous les cours et réunions.</t>
   </si>
   <si>
+    <t xml:space="preserve">Souvent</t>
+  </si>
+  <si>
     <t xml:space="preserve">J'ai été ponctuel à ces rencontres.</t>
   </si>
   <si>
@@ -402,9 +405,6 @@
   </si>
   <si>
     <t xml:space="preserve">La plupart du temps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souvent</t>
   </si>
   <si>
     <t xml:space="preserve">Très souvent</t>
@@ -947,7 +947,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1066,9 +1066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,7 +1082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2598480" cy="845640"/>
+          <a:ext cx="2873880" cy="845280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2658960" cy="788760"/>
+          <a:ext cx="2895480" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,9 +1150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2658960" cy="788760"/>
+          <a:ext cx="2895480" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1208,7 +1208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2658960" cy="788760"/>
+          <a:ext cx="2895480" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,9 +1234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1250,7 +1250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2658960" cy="788760"/>
+          <a:ext cx="2895480" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,9 +1276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1292,7 +1292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2658960" cy="788760"/>
+          <a:ext cx="2895480" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1308,13 +1308,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4262,17 +4262,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
@@ -4464,36 +4464,40 @@
       <c r="I13" s="51"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="e">
+      <c r="D14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="55" t="str">
+        <v>4</v>
+      </c>
+      <c r="F14" s="55" t="n">
         <f aca="false">IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>Autoévaluation à faire</v>
+        <v>60</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="e">
+        <v>44</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
@@ -4501,16 +4505,18 @@
       <c r="I15" s="55"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="e">
+        <v>45</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -4518,16 +4524,18 @@
       <c r="I16" s="55"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="e">
+        <v>46</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -4535,16 +4543,18 @@
       <c r="I17" s="55"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="e">
+        <v>47</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
@@ -4552,16 +4562,18 @@
       <c r="I18" s="55"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="e">
+        <v>48</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
@@ -4569,16 +4581,18 @@
       <c r="I19" s="55"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="e">
+        <v>49</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
@@ -4586,16 +4600,18 @@
       <c r="I20" s="55"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="e">
+        <v>50</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -4603,16 +4619,18 @@
       <c r="I21" s="55"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="e">
+        <v>51</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -4620,16 +4638,18 @@
       <c r="I22" s="55"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="e">
+        <v>52</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -4637,16 +4657,18 @@
       <c r="I23" s="55"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="e">
+        <v>53</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
@@ -4654,16 +4676,18 @@
       <c r="I24" s="55"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="e">
+        <v>54</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
@@ -4671,16 +4695,18 @@
       <c r="I25" s="55"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54" t="e">
+        <v>55</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
@@ -4688,16 +4714,18 @@
       <c r="I26" s="55"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54" t="e">
+        <v>56</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
@@ -4705,16 +4733,18 @@
       <c r="I27" s="55"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54" t="e">
+        <v>57</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -4738,7 +4768,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -4852,17 +4882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
@@ -4950,10 +4980,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4981,7 +5011,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -4997,7 +5027,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5010,16 +5040,18 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54" t="e">
+        <v>63</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="60" t="str">
+        <v>4</v>
+      </c>
+      <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>à évaluer</v>
+        <v>60</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5030,12 +5062,14 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="e">
+        <v>64</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5047,12 +5081,14 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54" t="e">
+        <v>65</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5064,12 +5100,14 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="e">
+        <v>66</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5081,12 +5119,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="e">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5098,12 +5138,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="e">
+        <v>68</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5115,12 +5157,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="e">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5132,12 +5176,14 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="e">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5149,12 +5195,14 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="e">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5166,12 +5214,14 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="e">
+        <v>72</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5183,12 +5233,14 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="e">
+        <v>73</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5200,12 +5252,14 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="e">
+        <v>74</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5217,12 +5271,14 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="e">
+        <v>75</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5234,12 +5290,14 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="e">
+        <v>76</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5251,12 +5309,14 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="e">
+        <v>77</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -5280,7 +5340,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -5392,17 +5452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
@@ -5490,10 +5550,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -5521,7 +5581,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5537,7 +5597,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5550,16 +5610,18 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54" t="e">
+        <v>63</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="60" t="str">
+        <v>4</v>
+      </c>
+      <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>à évaluer</v>
+        <v>60</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5570,12 +5632,14 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="e">
+        <v>64</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5587,12 +5651,14 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54" t="e">
+        <v>65</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5604,12 +5670,14 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="e">
+        <v>66</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5621,12 +5689,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="e">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5638,12 +5708,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="e">
+        <v>68</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5655,12 +5727,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="e">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5672,12 +5746,14 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="e">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5689,12 +5765,14 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="e">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5706,12 +5784,14 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="e">
+        <v>72</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5723,12 +5803,14 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="e">
+        <v>73</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5740,12 +5822,14 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="e">
+        <v>74</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5757,12 +5841,14 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="e">
+        <v>75</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5774,12 +5860,14 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="e">
+        <v>76</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5791,12 +5879,14 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="e">
+        <v>77</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -5820,7 +5910,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -5932,17 +6022,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
@@ -6030,10 +6120,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6061,7 +6151,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6077,7 +6167,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6090,16 +6180,18 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54" t="e">
+        <v>63</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="60" t="str">
+        <v>4</v>
+      </c>
+      <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>à évaluer</v>
+        <v>60</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6110,12 +6202,14 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="e">
+        <v>64</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6127,12 +6221,14 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54" t="e">
+        <v>65</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6144,12 +6240,14 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="e">
+        <v>66</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6161,12 +6259,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="e">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6178,12 +6278,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="e">
+        <v>68</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6195,12 +6297,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="e">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6212,12 +6316,14 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="e">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6229,12 +6335,14 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="e">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6246,12 +6354,14 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="e">
+        <v>72</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6263,12 +6373,14 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="e">
+        <v>73</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6280,12 +6392,14 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="e">
+        <v>74</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6297,12 +6411,14 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="e">
+        <v>75</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -6314,12 +6430,14 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="e">
+        <v>76</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6331,12 +6449,14 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="e">
+        <v>77</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -6360,7 +6480,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -6472,17 +6592,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
@@ -6570,10 +6690,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -6601,7 +6721,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -6617,7 +6737,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -6630,16 +6750,18 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54" t="e">
+        <v>63</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="60" t="str">
+        <v>4</v>
+      </c>
+      <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>à évaluer</v>
+        <v>60</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6650,12 +6772,14 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="e">
+        <v>64</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6667,12 +6791,14 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54" t="e">
+        <v>65</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6684,12 +6810,14 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="e">
+        <v>66</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6701,12 +6829,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="e">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6718,12 +6848,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="e">
+        <v>68</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6735,12 +6867,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="e">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6752,12 +6886,14 @@
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="e">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6769,12 +6905,14 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="e">
+        <v>71</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6786,12 +6924,14 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54" t="e">
+        <v>72</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6803,12 +6943,14 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="e">
+        <v>73</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6820,12 +6962,14 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="e">
+        <v>74</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6837,12 +6981,14 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="e">
+        <v>75</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -6854,12 +7000,14 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54" t="e">
+        <v>76</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6871,12 +7019,14 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="e">
+        <v>77</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -6900,7 +7050,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -7012,7 +7162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7022,14 +7172,14 @@
       <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -7037,7 +7187,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7045,7 +7195,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7053,7 +7203,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7061,7 +7211,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
